--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hasil" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediksi Benar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediksi Salah" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data Asli" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hasil" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Prediksi Benar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Prediksi Salah" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Data Asli" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,29 +478,29 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.9</v>
+        <v>5.4</v>
       </c>
       <c r="C2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D2" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>131</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -511,13 +511,13 @@
         <v>6.3</v>
       </c>
       <c r="C3" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D3" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="E3" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -526,11 +526,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Iris-versicolor</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>87</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
@@ -538,16 +538,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="C4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="n">
         <v>1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -568,29 +568,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="C5" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-versicolor</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -598,16 +598,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="C6" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D6" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -616,11 +616,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Iris-versicolor</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
@@ -628,16 +628,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="C7" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D7" t="n">
         <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -658,29 +658,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>7.6</v>
+        <v>5.8</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="E8" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -688,29 +688,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="C9" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-versicolor</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -718,16 +718,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D10" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="E10" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -748,29 +748,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-versicolor</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -778,29 +778,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>4.6</v>
+        <v>6.7</v>
       </c>
       <c r="C12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D12" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-versicolor</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -808,16 +808,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="D13" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="E13" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -826,11 +826,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-versicolor</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>149</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
@@ -838,16 +838,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="D14" t="n">
-        <v>5.6</v>
+        <v>3.3</v>
       </c>
       <c r="E14" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -856,11 +856,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-versicolor</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
@@ -868,16 +868,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="C15" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D15" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -886,11 +886,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Iris-versicolor</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>54</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
@@ -898,16 +898,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="C16" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D16" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="E16" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -916,11 +916,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Iris-versicolor</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
@@ -928,29 +928,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D17" t="n">
-        <v>5.6</v>
+        <v>1.4</v>
       </c>
       <c r="E17" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>134</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -958,29 +958,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="C18" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-versicolor</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -988,16 +988,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="C19" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D19" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1006,11 +1006,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-versicolor</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -1018,16 +1018,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="C20" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -1048,16 +1048,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D21" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>147</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
@@ -1078,16 +1078,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
       <c r="C22" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D22" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -1108,16 +1108,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -1138,16 +1138,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="C24" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D24" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -1168,20 +1168,20 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="C25" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="D25" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -1198,13 +1198,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D26" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
         <v>1.5</v>
@@ -1216,11 +1216,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Iris-versicolor</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>72</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
@@ -1228,29 +1228,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="C27" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="D27" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="E27" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Iris-versicolor</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -1258,29 +1258,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="C28" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D28" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>121</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -1288,29 +1288,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>6.9</v>
+        <v>5.1</v>
       </c>
       <c r="C29" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D29" t="n">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-versicolor</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
@@ -1324,10 +1324,10 @@
         <v>2.7</v>
       </c>
       <c r="D30" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="E30" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1336,11 +1336,11 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Iris-versicolor</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>82</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31">
@@ -1351,13 +1351,13 @@
         <v>5.1</v>
       </c>
       <c r="C31" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D31" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
@@ -1378,16 +1378,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D32" t="n">
         <v>1.4</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33">
@@ -1408,29 +1408,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D33" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="E33" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>127</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
@@ -1438,16 +1438,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="C34" t="n">
         <v>3.1</v>
       </c>
       <c r="D34" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="E34" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35">
@@ -1468,16 +1468,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="C35" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="E35" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1486,11 +1486,11 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-versicolor</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
@@ -1498,16 +1498,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D36" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="E36" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1516,11 +1516,11 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-versicolor</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>112</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37">
@@ -1528,16 +1528,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="C37" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="E37" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
@@ -1558,29 +1558,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="C38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D38" t="n">
         <v>3.8</v>
       </c>
-      <c r="D38" t="n">
-        <v>1.7</v>
-      </c>
       <c r="E38" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-versicolor</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
@@ -1588,16 +1588,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="C39" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D39" t="n">
         <v>4.7</v>
       </c>
       <c r="E39" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
@@ -1618,16 +1618,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="C40" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D40" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
@@ -1648,29 +1648,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>7.7</v>
+        <v>5.5</v>
       </c>
       <c r="C41" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D41" t="n">
-        <v>6.7</v>
+        <v>1.3</v>
       </c>
       <c r="E41" t="n">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>117</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
@@ -1678,29 +1678,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="C42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D42" t="n">
-        <v>1.3</v>
+        <v>5.4</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>36</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43">
@@ -1708,16 +1708,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="C43" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D43" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -1738,29 +1738,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="C44" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D44" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-versicolor</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45">
@@ -1768,16 +1768,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="C45" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E45" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
@@ -1798,16 +1798,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D46" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47">
@@ -1828,29 +1828,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="C47" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D47" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="E47" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
@@ -1858,13 +1858,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="C48" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D48" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="E48" t="n">
         <v>0.2</v>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49">
@@ -1888,16 +1888,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>4.9</v>
+        <v>6.5</v>
       </c>
       <c r="C49" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D49" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
@@ -1921,26 +1921,26 @@
         <v>4.9</v>
       </c>
       <c r="C50" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D50" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="E50" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>106</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51">
@@ -1948,29 +1948,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>5.2</v>
+        <v>6.7</v>
       </c>
       <c r="C51" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D51" t="n">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>27</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52">
@@ -1978,16 +1978,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="C52" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D52" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="E52" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53">
@@ -2008,29 +2008,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="C53" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="D53" t="n">
-        <v>1.4</v>
+        <v>5.1</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>6</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54">
@@ -2038,16 +2038,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="C54" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D54" t="n">
         <v>1.5</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -2068,10 +2068,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D55" t="n">
         <v>4.5</v>
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
@@ -2098,16 +2098,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="C56" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="E56" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2116,11 +2116,11 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Iris-versicolor</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
@@ -2128,29 +2128,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
       <c r="C57" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D57" t="n">
-        <v>6.1</v>
+        <v>1.5</v>
       </c>
       <c r="E57" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>109</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58">
@@ -2158,16 +2158,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="C58" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59">
@@ -2188,13 +2188,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="C59" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D59" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="E59" t="n">
         <v>0.2</v>
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -2218,29 +2218,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="C60" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="E60" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Iris-versicolor</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61">
@@ -2248,16 +2248,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="D61" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2284,7 +2284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2334,29 +2334,29 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.9</v>
+        <v>5.4</v>
       </c>
       <c r="C2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D2" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>131</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2364,29 +2364,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="C3" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="D3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E3" t="n">
         <v>1.5</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.4</v>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>31</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
@@ -2394,10 +2394,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="C4" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="n">
         <v>1.5</v>
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -2424,29 +2424,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.1</v>
+        <v>6.7</v>
       </c>
       <c r="C5" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>39</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
@@ -2454,29 +2454,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.6</v>
+        <v>4.9</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D6" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2484,16 +2484,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="C7" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -2514,16 +2514,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D8" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="E8" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
@@ -2544,29 +2544,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="C9" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D9" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
@@ -2574,29 +2574,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>4.6</v>
+        <v>6.7</v>
       </c>
       <c r="C10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D10" t="n">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>47</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -2604,29 +2604,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D11" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="E11" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>149</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -2634,16 +2634,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="C12" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D12" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="E12" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -2664,29 +2664,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>6.1</v>
+        <v>4.8</v>
       </c>
       <c r="C13" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D13" t="n">
-        <v>5.6</v>
+        <v>1.6</v>
       </c>
       <c r="E13" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>134</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -2694,29 +2694,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="D14" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>20</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
@@ -2724,29 +2724,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D15" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>110</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -2754,29 +2754,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>6.5</v>
+        <v>4.9</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D16" t="n">
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>147</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2784,29 +2784,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D17" t="n">
         <v>5.1</v>
       </c>
-      <c r="C17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.5</v>
-      </c>
       <c r="E17" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18">
@@ -2814,29 +2814,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="C18" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D18" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>121</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -2844,29 +2844,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>6.9</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D19" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="E19" t="n">
-        <v>2.3</v>
+        <v>0.2</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>120</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -2874,16 +2874,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="C20" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D20" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -2904,29 +2904,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D21" t="n">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>45</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22">
@@ -2964,29 +2964,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>6.7</v>
+        <v>4.6</v>
       </c>
       <c r="C23" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D23" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -2994,29 +2994,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="C24" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D24" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="E24" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>101</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -3024,16 +3024,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D25" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="E25" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26">
@@ -3054,29 +3054,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="C26" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="E26" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -3084,16 +3084,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D27" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -3114,16 +3114,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="C28" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D28" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -3144,29 +3144,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>7.7</v>
+        <v>4.6</v>
       </c>
       <c r="C29" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D29" t="n">
-        <v>6.7</v>
+        <v>1.4</v>
       </c>
       <c r="E29" t="n">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>117</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
@@ -3174,16 +3174,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="C30" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D30" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -3204,29 +3204,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>4.8</v>
+        <v>6.7</v>
       </c>
       <c r="C31" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D31" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>30</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32">
@@ -3234,29 +3234,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="C32" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D32" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>10</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -3264,29 +3264,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D33" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1</v>
+        <v>2.4</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>13</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -3294,29 +3294,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="C34" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D34" t="n">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="E34" t="n">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -3324,29 +3324,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>5.3</v>
+        <v>7.6</v>
       </c>
       <c r="C35" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>48</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
@@ -3354,29 +3354,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="C36" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="D36" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="E36" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37">
@@ -3384,13 +3384,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="C37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D37" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E37" t="n">
         <v>0.2</v>
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -3414,149 +3414,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="C38" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="E38" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
         <v>38</v>
-      </c>
-      <c r="B39" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Iris-setosa</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Iris-setosa</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="n">
-        <v>5</v>
-      </c>
-      <c r="C40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Iris-setosa</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Iris-setosa</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C41" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D41" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Iris-virginica</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Iris-virginica</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Iris-setosa</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Iris-setosa</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3620,16 +3500,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="C2" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D2" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="E2" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3642,7 +3522,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -3650,10 +3530,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="C3" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D3" t="n">
         <v>4.2</v>
@@ -3672,7 +3552,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
@@ -3680,16 +3560,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3702,7 +3582,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -3710,16 +3590,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="C5" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D5" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="E5" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -3732,7 +3612,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -3740,16 +3620,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D6" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -3762,7 +3642,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -3770,16 +3650,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="D7" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="E7" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -3792,7 +3672,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -3800,16 +3680,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -3822,7 +3702,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -3833,17 +3713,17 @@
         <v>5.7</v>
       </c>
       <c r="C9" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D9" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Iris-virginica</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3852,7 +3732,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -3860,16 +3740,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="C10" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -3882,7 +3762,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -3890,16 +3770,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="C11" t="n">
         <v>2.7</v>
       </c>
       <c r="D11" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="E11" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -3912,7 +3792,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>59</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
@@ -3920,16 +3800,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="C12" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D12" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="E12" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -3942,7 +3822,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
@@ -3980,20 +3860,20 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="C14" t="n">
         <v>2.5</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -4002,7 +3882,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -4010,16 +3890,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>4.9</v>
+        <v>6.1</v>
       </c>
       <c r="C15" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -4032,7 +3912,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
@@ -4040,16 +3920,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D16" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="E16" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -4062,7 +3942,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
@@ -4070,16 +3950,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="D17" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="E17" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -4092,7 +3972,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -4100,16 +3980,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="C18" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D18" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -4122,7 +4002,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -4130,16 +4010,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="C19" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D19" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -4152,7 +4032,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -4160,16 +4040,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="D20" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -4182,7 +4062,127 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>60</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
